--- a/test/data/25peptides_5perpool_3x_aid-plate-reader_readout.xlsx
+++ b/test/data/25peptides_5perpool_3x_aid-plate-reader_readout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leework/Documents/Research/projects/project_ace/ace/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D6A3B9-37D5-BD43-A9A7-5D0D1C1F08A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E3430-6D72-874A-AAF9-5E86B21AB980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16560" xr2:uid="{476BF01A-97FD-BC4C-9B34-3365E3ECE7DA}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="20020" xr2:uid="{476BF01A-97FD-BC4C-9B34-3365E3ECE7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="PlateData" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E4" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>300</v>
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C5" s="3">
         <v>300</v>
